--- a/data/FSDS.xlsx
+++ b/data/FSDS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vniiz\Desktop\spectask\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vniiz\Desktop\spectask\Dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB6AB75-820F-4767-8BA3-8A1C4206CA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D976268D-B10A-4661-8D12-342DEAE1437E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="1620" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Tables" sheetId="1" r:id="rId1"/>
@@ -27411,23 +27411,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="dba2cdc0-cec6-442f-8c78-3a0651ba5876" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010055949377CF89FC4C84E0D9207582D3D5" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="119feb6803e1a59e7d00c7645aa1df03">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dba2cdc0-cec6-442f-8c78-3a0651ba5876" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6be69061d5ce820132a1c8315a271626" ns2:_="">
     <xsd:import namespace="dba2cdc0-cec6-442f-8c78-3a0651ba5876"/>
@@ -27603,25 +27586,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33CDC84-03AE-4A18-B237-BB70DFF0BFFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dba2cdc0-cec6-442f-8c78-3a0651ba5876"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53672F0C-8D46-4D3C-892E-844A566F124E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="dba2cdc0-cec6-442f-8c78-3a0651ba5876" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5F93E93-F712-4D43-9590-7A7D82DBD698}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27637,4 +27619,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53672F0C-8D46-4D3C-892E-844A566F124E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33CDC84-03AE-4A18-B237-BB70DFF0BFFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dba2cdc0-cec6-442f-8c78-3a0651ba5876"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>